--- a/Table/xlsx/NPC.xlsx
+++ b/Table/xlsx/NPC.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AF9296-C284-4443-A8EF-0EFCC83C13CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43827617-563E-4CCE-A8EC-CBB4C65A912C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Translate_Name" sheetId="2" r:id="rId2"/>
+    <sheet name="Translate_Desc" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="38">
   <si>
     <t>Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +77,95 @@
   <si>
     <t>칼라</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔피시이름1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Killable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔피시이름2</t>
+  </si>
+  <si>
+    <t>엔피시이름3</t>
+  </si>
+  <si>
+    <t>엔피시이름4</t>
+  </si>
+  <si>
+    <t>엔피시이름5</t>
+  </si>
+  <si>
+    <t>엔피시이름6</t>
+  </si>
+  <si>
+    <t>엔피시이름7</t>
+  </si>
+  <si>
+    <t>엔피시이름8</t>
+  </si>
+  <si>
+    <t>엔피시이름9</t>
+  </si>
+  <si>
+    <t>엔피시이름10</t>
+  </si>
+  <si>
+    <t>엔피시이름11</t>
+  </si>
+  <si>
+    <t>엔피시이름12</t>
+  </si>
+  <si>
+    <t>엔피시이름13</t>
+  </si>
+  <si>
+    <t>엔피시이름14</t>
+  </si>
+  <si>
+    <t>엔피시이름15</t>
+  </si>
+  <si>
+    <t>엔피시이름16</t>
+  </si>
+  <si>
+    <t>엔피시이름17</t>
+  </si>
+  <si>
+    <t>엔피시이름18</t>
+  </si>
+  <si>
+    <t>엔피시이름19</t>
+  </si>
+  <si>
+    <t>엔피시이름20</t>
   </si>
 </sst>
 </file>
@@ -153,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +259,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="A11:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,76 +555,424 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2002</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2003</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>2004</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2005</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2006</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2006</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -532,4 +980,891 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8DBD2A-BB08-4278-98F4-F0ABB3EA8AE6}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF13B76-5462-4EA2-BABE-6C507C8BE1F0}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Table/xlsx/NPC.xlsx
+++ b/Table/xlsx/NPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shlif\OneDrive\Documents\GitHub\MyDetectiveServer\Table\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43827617-563E-4CCE-A8EC-CBB4C65A912C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C14CBF-F85B-4138-A005-E23791E75A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="A11:D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>21</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>23</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>24</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>25</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>27</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>28</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>29</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>30</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>31</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>32</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>33</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>34</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>35</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>36</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>37</v>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8DBD2A-BB08-4278-98F4-F0ABB3EA8AE6}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF13B76-5462-4EA2-BABE-6C507C8BE1F0}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
